--- a/mfa/I_orientalis/run_files/Nlim__D_0_34/data_expmt1.xlsx
+++ b/mfa/I_orientalis/run_files/Nlim__D_0_34/data_expmt1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MSData" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="261">
   <si>
     <t xml:space="preserve">fragment name</t>
   </si>
@@ -667,6 +667,9 @@
   </si>
   <si>
     <t xml:space="preserve">BIOMASS.f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX_glc__D_e.f</t>
   </si>
   <si>
     <t xml:space="preserve">EX_c5sugal_e.f</t>
@@ -919,8 +922,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1859,10 +1862,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="1" sqref="A2:H35 A37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1889,18 +1892,18 @@
         <v>0.34</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>215</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.0465512673191388</v>
+        <v>6.43851654631153</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.00465512673191388</v>
+        <v>3.14620763991209</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1908,10 +1911,10 @@
         <v>216</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>100</v>
+        <v>0.017361111111111</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.0001</v>
+        <v>0.046551267319139</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2266,7 +2269,7 @@
         <v>0.0001</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>249</v>
       </c>
@@ -2274,6 +2277,17 @@
         <v>100</v>
       </c>
       <c r="C37" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C38" s="0" t="n">
         <v>0.0001</v>
       </c>
     </row>
@@ -2295,8 +2309,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:H35 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2306,33 +2320,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0.5</v>
@@ -2341,7 +2355,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>100</v>
